--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem5/42/correct_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem5/42/correct_predictions_42.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1196,22 +1196,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Motor speed error</t>
+          <t>Land or return to home promptly</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1226,22 +1226,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>If the issue persists, contact DJI Support</t>
+          <t>Motor speed error</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>21-27</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1256,12 +1256,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Land or return to home promptly</t>
+          <t>If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>21-27</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1277,31 +1277,31 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Compass abnormal</t>
+          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>9-20</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1316,22 +1316,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>The ground or walls may contain metal</t>
+          <t>Compass abnormal</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>15-21</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
+          <t>The ground or walls may contain metal</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2-14</t>
+          <t>15-21</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1376,20 +1376,50 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2-14</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>6</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>Move away from sources of interference before attempting flight</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>22-30</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem5/42/correct_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem5/42/correct_predictions_42.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1196,22 +1196,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Land or return to home promptly</t>
+          <t>Motor speed error</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1226,22 +1226,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Motor speed error</t>
+          <t>If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>21-27</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1256,12 +1256,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>If the issue persists, contact DJI Support</t>
+          <t>Land or return to home promptly</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>21-27</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1277,31 +1277,31 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
+          <t>Compass abnormal</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>9-20</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1316,22 +1316,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Compass abnormal</t>
+          <t>The ground or walls may contain metal</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>15-21</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>The ground or walls may contain metal</t>
+          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>15-21</t>
+          <t>2-14</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
+          <t>Move away from sources of interference before attempting flight</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2-14</t>
+          <t>22-30</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1390,36 +1390,6 @@
         </is>
       </c>
       <c r="F32" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>6</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Move away from sources of interference before attempting flight</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>22-30</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
